--- a/CP-Quanto_Custa_Ter_Um_Carro.xlsx
+++ b/CP-Quanto_Custa_Ter_Um_Carro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrodrig9\Downloads\calculoIMC-master\calculoIMC-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>km</t>
   </si>
@@ -192,6 +192,9 @@
   <si>
     <t>Cabify</t>
   </si>
+  <si>
+    <t>Preço Mínimo</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -348,6 +351,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -355,7 +474,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -392,9 +511,6 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -402,14 +518,45 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -513,7 +660,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>468.30000000000007</c:v>
+                  <c:v>358.18235294117648</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>487.5</c:v>
@@ -653,7 +800,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>396.00000000000006</c:v>
+                  <c:v>285.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.5</c:v>
@@ -740,7 +887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -767,9 +913,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1605,8 +1749,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,23 +2094,23 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="13">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="10">
-        <v>4.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="19">
         <f>IF(D13,$D$9/D13*F13,0)</f>
-        <v>396.00000000000006</v>
+        <v>285.88235294117646</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="19">
         <f>H13*12</f>
-        <v>4752.0000000000009</v>
+        <v>3430.5882352941176</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2593,12 +2737,12 @@
       <c r="G33" s="7"/>
       <c r="H33" s="19">
         <f>SUM(H13:H31)</f>
-        <v>468.30000000000007</v>
+        <v>358.18235294117648</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="19">
         <f>SUM(J13:J31)</f>
-        <v>5592.6000000000013</v>
+        <v>4271.1882352941175</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2823,7 +2967,7 @@
       </c>
       <c r="I41" s="21">
         <f>H33</f>
-        <v>468.30000000000007</v>
+        <v>358.18235294117648</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3327,9 +3471,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="8"/>
-      <c r="D59" s="10">
-        <v>200</v>
-      </c>
+      <c r="D59" s="10"/>
       <c r="E59" s="8"/>
       <c r="F59" s="16"/>
       <c r="G59" s="7"/>
@@ -3670,12 +3812,12 @@
       <c r="C72" s="4"/>
       <c r="D72" s="19">
         <f>H33</f>
-        <v>468.30000000000007</v>
+        <v>358.18235294117648</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="29">
         <f>IF($D$63,D72/$D$63,0)</f>
-        <v>1.0406666666666668E-2</v>
+        <v>7.9596078431372549E-3</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -3843,12 +3985,12 @@
       <c r="C78" s="4"/>
       <c r="D78" s="25">
         <f>D59</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="29">
         <f>IF($D$63,D78/$D$63,0)</f>
-        <v>4.4444444444444444E-3</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -3901,12 +4043,12 @@
       <c r="C80" s="7"/>
       <c r="D80" s="26">
         <f>SUM(D72:D78)</f>
-        <v>1530.8000000000002</v>
+        <v>1220.6823529411765</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="29">
         <f>IF($D$63,D80/$D$63,0)</f>
-        <v>3.4017777777777779E-2</v>
+        <v>2.7126274509803924E-2</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -3959,12 +4101,12 @@
       <c r="C82" s="7"/>
       <c r="D82" s="26">
         <f>D80*12</f>
-        <v>18369.600000000002</v>
+        <v>14648.188235294117</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="29">
         <f>IF($D$63,D82/$D$63,0)</f>
-        <v>0.40821333333333337</v>
+        <v>0.32551529411764707</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -5168,7 +5310,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -5177,10 +5319,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -5189,522 +5331,574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="38">
+        <v>7.36</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="38">
+        <f>B3</f>
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B4" s="32">
         <v>25</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E4" s="32">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B5" s="32">
         <v>14</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="32">
-        <v>2</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>43</v>
       </c>
       <c r="E5" s="32">
         <f>B5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="D6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="31">
+        <f>B6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B7" s="31">
         <v>0.75</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="32">
-        <f>B6</f>
+      <c r="E7" s="31">
+        <f>B7</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B8" s="31">
         <v>1.4</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="32">
-        <f>B7</f>
+      <c r="E8" s="31">
+        <f>B8</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B9" s="42">
         <v>0.26</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="32">
-        <f>B8</f>
+      <c r="E9" s="31">
+        <f>B9</f>
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="32">
-        <f>B5+B6</f>
+      <c r="B10" s="46">
+        <f>B6+B7</f>
         <v>2.75</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="32">
-        <f>E5+E6</f>
+      <c r="E10" s="46">
+        <f>E6+E7</f>
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="32">
-        <f>B7*B4</f>
+      <c r="B11" s="48">
+        <f>B8*B5</f>
         <v>19.599999999999998</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="32">
-        <f>E7*E4</f>
+      <c r="E11" s="48">
+        <f>E8*E5</f>
         <v>19.599999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="32">
-        <f>B8*B3</f>
+      <c r="B12" s="50">
+        <f>B9*B4</f>
         <v>6.5</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="32">
-        <f>E8*E3</f>
+      <c r="E12" s="50">
+        <f>E9*E4</f>
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="36">
-        <f>SUM(B9:B11)</f>
+      <c r="B13" s="44">
+        <f>SUM(B10:B12)</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="35" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="36">
-        <f>SUM(E9:E11)</f>
+      <c r="E13" s="34">
+        <f>SUM(E10:E12)</f>
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
         <v>99</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="D15" s="30" t="s">
+      <c r="B16" s="37"/>
+      <c r="D16" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="38">
+        <v>6.99</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="38">
+        <f>B17</f>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="33">
-        <v>18</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="B18" s="32">
+        <v>25</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="33">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="E18" s="32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B19" s="32">
         <v>14</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E19" s="32">
+        <f>B19</f>
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B20" s="31">
         <v>2</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="32">
-        <f>B18</f>
+      <c r="E20" s="31">
+        <f>B20</f>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="B21" s="31"/>
+      <c r="D21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B22" s="31">
         <v>1.6</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="32">
-        <f>B20</f>
+      <c r="E22" s="31">
+        <f>B22</f>
         <v>1.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B23" s="31">
         <v>0.15</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="32">
-        <f>B21</f>
+      <c r="E23" s="31">
+        <f>B23</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="32">
-        <f>B18+B19</f>
+      <c r="B24" s="46">
+        <f>B20+B21</f>
         <v>2</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D24" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="32">
-        <f>E18+E19</f>
+      <c r="E24" s="46">
+        <f>E20+E21</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="32">
-        <f>B20*B17</f>
+      <c r="B25" s="48">
+        <f>B22*B19</f>
         <v>22.400000000000002</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D25" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="32">
-        <f>E20*E17</f>
+      <c r="E25" s="48">
+        <f>E22*E19</f>
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="32">
-        <f>B21*B16</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="D24" s="31" t="s">
+      <c r="B26" s="50">
+        <f>B23*B18</f>
+        <v>3.75</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="32">
-        <f>E21*E16</f>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="E26" s="50">
+        <f>E23*E18</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="36">
-        <f>SUM(B22:B24)</f>
-        <v>27.1</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="35" t="s">
+      <c r="B27" s="34">
+        <f>SUM(B24:B26)</f>
+        <v>28.150000000000002</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="36">
-        <f>SUM(E22:E24)</f>
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="E27" s="34">
+        <f>SUM(E24:E26)</f>
+        <v>31.150000000000002</v>
+      </c>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="D28" s="30" t="s">
+      <c r="B30" s="37"/>
+      <c r="D30" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="38">
+        <v>7.36</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="38">
+        <f>B31</f>
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B32" s="32">
         <v>15</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="33">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="E32" s="32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B33" s="32">
         <v>14</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D33" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="E30" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="32">
-        <v>2.5</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="32">
-        <f>B31</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="D32" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="32">
-        <v>1.44</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>44</v>
       </c>
       <c r="E33" s="32">
         <f>B33</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="31">
+        <f>B34</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="D35" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="31">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="D36" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="31">
+        <f>B36</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B37" s="31">
         <v>0.27</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D37" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="32">
-        <f>B34</f>
+      <c r="E37" s="31">
+        <f>B37</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="32">
-        <f>B31+B32</f>
+      <c r="B38" s="46">
+        <f>B34+B35</f>
         <v>2.5</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D38" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="32">
-        <f>E31+E32</f>
+      <c r="E38" s="46">
+        <f>E34+E35</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="32">
-        <f>B33*B30</f>
+      <c r="B39" s="48">
+        <f>B36*B33</f>
         <v>20.16</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D39" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="32">
-        <f>E33*E30</f>
+      <c r="E39" s="48">
+        <f>E36*E33</f>
         <v>20.16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="32">
-        <f>B34*B29</f>
+      <c r="B40" s="50">
+        <f>B37*B32</f>
         <v>4.0500000000000007</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D40" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="32">
-        <f>E34*E29</f>
-        <v>9.4500000000000011</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="E40" s="50">
+        <f>E37*E32</f>
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="36">
-        <f>SUM(B35:B37)</f>
+      <c r="B41" s="34">
+        <f>SUM(B38:B40)</f>
         <v>26.71</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="35" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="36">
-        <f>SUM(E35:E37)</f>
-        <v>32.11</v>
+      <c r="E41" s="34">
+        <f>SUM(E38:E40)</f>
+        <v>34.81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
